--- a/Test/Epsilon/MSE1000006.xlsx
+++ b/Test/Epsilon/MSE1000006.xlsx
@@ -438,25 +438,25 @@
         <v>0.07963437244933805</v>
       </c>
       <c r="F1" t="n">
-        <v>0.07454395367624206</v>
+        <v>0.07639860718234814</v>
       </c>
       <c r="G1" t="n">
-        <v>0.07360136765320051</v>
+        <v>0.06993328999769235</v>
       </c>
       <c r="H1" t="n">
-        <v>0.06273849482143552</v>
+        <v>0.06899556080294929</v>
       </c>
       <c r="I1" t="n">
-        <v>0.06169746737082938</v>
+        <v>0.06739693215235622</v>
       </c>
       <c r="J1" t="n">
-        <v>0.06163765739566272</v>
+        <v>0.06722940514916127</v>
       </c>
       <c r="K1" t="n">
-        <v>0.06128854226355897</v>
+        <v>0.06226578696370111</v>
       </c>
       <c r="L1" t="n">
-        <v>0.06123358929759807</v>
+        <v>0.06185199534651758</v>
       </c>
     </row>
   </sheetData>
